--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl20-Ccr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl20-Ccr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,6 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Ccl20</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +537,10 @@
         <v>3.057639</v>
       </c>
       <c r="I2">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,214 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04774999999999999</v>
+        <v>0.195179</v>
       </c>
       <c r="N2">
-        <v>0.14325</v>
+        <v>0.585537</v>
       </c>
       <c r="O2">
-        <v>0.02553483673658191</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.02553483673658191</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04866742074999999</v>
+        <v>0.198928974127</v>
       </c>
       <c r="R2">
-        <v>0.43800678675</v>
+        <v>1.790360767143</v>
       </c>
       <c r="S2">
-        <v>0.02370097257029443</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.02370097257029443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.019213</v>
-      </c>
-      <c r="H3">
-        <v>3.057639</v>
-      </c>
-      <c r="I3">
-        <v>0.928181872270981</v>
-      </c>
-      <c r="J3">
-        <v>0.928181872270981</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.822244333333333</v>
-      </c>
-      <c r="N3">
-        <v>5.466733</v>
-      </c>
-      <c r="O3">
-        <v>0.9744651632634181</v>
-      </c>
-      <c r="P3">
-        <v>0.974465163263418</v>
-      </c>
-      <c r="Q3">
-        <v>1.857255113709666</v>
-      </c>
-      <c r="R3">
-        <v>16.715296023387</v>
-      </c>
-      <c r="S3">
-        <v>0.9044808997006867</v>
-      </c>
-      <c r="T3">
-        <v>0.9044808997006866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.07886166666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.236585</v>
-      </c>
-      <c r="I4">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="J4">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.04774999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.14325</v>
-      </c>
-      <c r="O4">
-        <v>0.02553483673658191</v>
-      </c>
-      <c r="P4">
-        <v>0.02553483673658191</v>
-      </c>
-      <c r="Q4">
-        <v>0.003765644583333333</v>
-      </c>
-      <c r="R4">
-        <v>0.03389080125</v>
-      </c>
-      <c r="S4">
-        <v>0.001833864166287487</v>
-      </c>
-      <c r="T4">
-        <v>0.001833864166287487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.07886166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.236585</v>
-      </c>
-      <c r="I5">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="J5">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.822244333333333</v>
-      </c>
-      <c r="N5">
-        <v>5.466733</v>
-      </c>
-      <c r="O5">
-        <v>0.9744651632634181</v>
-      </c>
-      <c r="P5">
-        <v>0.974465163263418</v>
-      </c>
-      <c r="Q5">
-        <v>0.1437052252005555</v>
-      </c>
-      <c r="R5">
-        <v>1.293347026805</v>
-      </c>
-      <c r="S5">
-        <v>0.06998426356273155</v>
-      </c>
-      <c r="T5">
-        <v>0.06998426356273155</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
